--- a/input/Financial Statement WMT/Compiled Cashflow Statement-WMT.xlsx
+++ b/input/Financial Statement WMT/Compiled Cashflow Statement-WMT.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Separately Compiled Statement" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +442,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Year Ended 2019</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Year Ended 2020</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q1 2021</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Q2 2021</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Q3 2021</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Q1 2022</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Q2 2022</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Q3 2022</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2022</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2023</t>
         </is>
       </c>
     </row>
@@ -506,6 +522,9 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -514,34 +533,43 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>7179</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7586</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10907</v>
+      </c>
+      <c r="F3" t="n">
         <v>15201</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
         <v>4074</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>10513</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>15714</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>13706</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>2811</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>7175</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>10307</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>13940</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2103</v>
       </c>
     </row>
     <row r="4">
@@ -560,6 +588,9 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,6 +608,9 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -585,245 +619,264 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>10678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5436</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8159</v>
+      </c>
+      <c r="F6" t="n">
         <v>10987</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" t="n">
         <v>2791</v>
       </c>
-      <c r="D6" t="n">
+      <c r="H6" t="n">
         <v>5562</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>8333</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>11152</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>2661</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>5302</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>7952</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>10658</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2680</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>unrealized and losses</t>
+          <t>unrealized loss on investments</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1886</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-783</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-4006</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-6883</v>
-      </c>
+        <v>3516</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(losss) and losses for disposal of business operations</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
+          <t>unrealized and losses</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>-731</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-911</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1886</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-783</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-4006</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-6883</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>net unrealized and realized and losses</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>(losss) and losses for disposal of business operations</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4850</v>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
       <c r="F9" t="n">
-        <v>-8589</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2077</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3019</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1831</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2440</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1989</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>losses on disposal of business operations</t>
+          <t>unrealized and losses</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>-783</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>8401</v>
-      </c>
-      <c r="G10" t="n">
-        <v>433</v>
-      </c>
-      <c r="H10" t="n">
-        <v>433</v>
-      </c>
-      <c r="I10" t="n">
-        <v>433</v>
-      </c>
-      <c r="J10" t="n">
-        <v>433</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>asda pension contribution</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1036</v>
-      </c>
+          <t>net unrealized and realized and losses</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>-8589</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2077</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3019</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1831</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2440</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>loss on disposal of business operations</t>
+          <t>losses on disposal of business operations</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>37</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>8401</v>
+      </c>
+      <c r="K12" t="n">
+        <v>433</v>
+      </c>
+      <c r="L12" t="n">
+        <v>433</v>
+      </c>
+      <c r="M12" t="n">
+        <v>433</v>
+      </c>
+      <c r="N12" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>losses and on disposal of business operations</t>
+          <t>asda pension contribution</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1028</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-1036</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>320</v>
-      </c>
-      <c r="C14" t="n">
-        <v>84</v>
-      </c>
-      <c r="D14" t="n">
-        <v>472</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1246</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1911</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-155</v>
-      </c>
+          <t>loss on disposal of business operations</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-385</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-1402</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-755</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-69</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>loss on extinguishment of debt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
+          <t>losses and on disposal of business operations</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -831,950 +884,1157 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>2410</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2410</v>
-      </c>
+        <v>1028</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>other operating activities</t>
+          <t>deferred income taxes</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1981</v>
+        <v>-499</v>
       </c>
       <c r="C16" t="n">
-        <v>-51</v>
+        <v>-124</v>
       </c>
       <c r="D16" t="n">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="E16" t="n">
-        <v>930</v>
+        <v>574</v>
       </c>
       <c r="F16" t="n">
-        <v>1521</v>
+        <v>320</v>
       </c>
       <c r="G16" t="n">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="H16" t="n">
-        <v>606</v>
+        <v>472</v>
       </c>
       <c r="I16" t="n">
-        <v>1057</v>
+        <v>1246</v>
       </c>
       <c r="J16" t="n">
-        <v>1652</v>
+        <v>1911</v>
       </c>
       <c r="K16" t="n">
-        <v>-59</v>
+        <v>-155</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-385</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1402</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>changes in certain assets and liabilities, net of effects of acquisitions:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>loss on extinguishment of debt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>2410</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2410</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>changes in certain assets and liabilities, net of effects of acquisitions and dispositions:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>other operating activities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-75</v>
+      </c>
+      <c r="D18" t="n">
+        <v>348</v>
+      </c>
+      <c r="E18" t="n">
+        <v>938</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-51</v>
+      </c>
+      <c r="H18" t="n">
+        <v>305</v>
+      </c>
+      <c r="I18" t="n">
+        <v>930</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1521</v>
+      </c>
+      <c r="K18" t="n">
+        <v>270</v>
+      </c>
+      <c r="L18" t="n">
+        <v>606</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1057</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1652</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>receivables, net</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>154</v>
-      </c>
-      <c r="C19" t="n">
-        <v>924</v>
-      </c>
-      <c r="D19" t="n">
-        <v>823</v>
-      </c>
-      <c r="E19" t="n">
-        <v>165</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1086</v>
-      </c>
-      <c r="G19" t="n">
-        <v>828</v>
-      </c>
-      <c r="H19" t="n">
-        <v>452</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-842</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-1796</v>
-      </c>
-      <c r="K19" t="n">
-        <v>837</v>
-      </c>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>inventories</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-300</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2221</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2466</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-8260</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-2395</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-1487</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-2725</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-12663</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-11764</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-4699</v>
-      </c>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions and dispositions:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>accounts payable</t>
+          <t>receivables, net</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-274</v>
+        <v>-368</v>
       </c>
       <c r="C21" t="n">
-        <v>-1183</v>
+        <v>970</v>
       </c>
       <c r="D21" t="n">
-        <v>1052</v>
+        <v>978</v>
       </c>
       <c r="E21" t="n">
-        <v>8553</v>
+        <v>661</v>
       </c>
       <c r="F21" t="n">
-        <v>6966</v>
+        <v>154</v>
       </c>
       <c r="G21" t="n">
-        <v>-1004</v>
+        <v>924</v>
       </c>
       <c r="H21" t="n">
-        <v>119</v>
+        <v>823</v>
       </c>
       <c r="I21" t="n">
-        <v>7906</v>
+        <v>165</v>
       </c>
       <c r="J21" t="n">
-        <v>5520</v>
+        <v>-1086</v>
       </c>
       <c r="K21" t="n">
-        <v>-1640</v>
+        <v>828</v>
+      </c>
+      <c r="L21" t="n">
+        <v>452</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-842</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-1796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>accrued liabilities</t>
+          <t>inventories</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>186</v>
+        <v>-1311</v>
       </c>
       <c r="C22" t="n">
-        <v>-2109</v>
+        <v>-421</v>
       </c>
       <c r="D22" t="n">
-        <v>1428</v>
+        <v>220</v>
       </c>
       <c r="E22" t="n">
-        <v>1796</v>
+        <v>-7558</v>
       </c>
       <c r="F22" t="n">
-        <v>4623</v>
+        <v>-300</v>
       </c>
       <c r="G22" t="n">
-        <v>-4004</v>
+        <v>2221</v>
       </c>
       <c r="H22" t="n">
-        <v>-1412</v>
+        <v>2466</v>
       </c>
       <c r="I22" t="n">
-        <v>-722</v>
+        <v>-8260</v>
       </c>
       <c r="J22" t="n">
-        <v>1404</v>
+        <v>-2395</v>
       </c>
       <c r="K22" t="n">
-        <v>-4949</v>
+        <v>-1487</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-2725</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-12663</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-11764</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>accrued income taxes</t>
+          <t>accounts payable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-93</v>
+        <v>1831</v>
       </c>
       <c r="C23" t="n">
-        <v>1049</v>
+        <v>-1854</v>
       </c>
       <c r="D23" t="n">
-        <v>304</v>
+        <v>-1242</v>
       </c>
       <c r="E23" t="n">
-        <v>258</v>
+        <v>2925</v>
       </c>
       <c r="F23" t="n">
-        <v>-136</v>
+        <v>-274</v>
       </c>
       <c r="G23" t="n">
-        <v>428</v>
+        <v>-1183</v>
       </c>
       <c r="H23" t="n">
-        <v>-161</v>
+        <v>1052</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>8553</v>
       </c>
       <c r="J23" t="n">
-        <v>39</v>
+        <v>6966</v>
       </c>
       <c r="K23" t="n">
-        <v>49</v>
+        <v>-1004</v>
+      </c>
+      <c r="L23" t="n">
+        <v>119</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7906</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5520</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>net cash provided by operating activities</t>
+          <t>accrued liabilities</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25255</v>
+        <v>183</v>
       </c>
       <c r="C24" t="n">
-        <v>7017</v>
+        <v>-1514</v>
       </c>
       <c r="D24" t="n">
-        <v>18956</v>
+        <v>-1657</v>
       </c>
       <c r="E24" t="n">
-        <v>22880</v>
+        <v>-1107</v>
       </c>
       <c r="F24" t="n">
-        <v>36074</v>
+        <v>186</v>
       </c>
       <c r="G24" t="n">
-        <v>2858</v>
+        <v>-2109</v>
       </c>
       <c r="H24" t="n">
-        <v>12423</v>
+        <v>1428</v>
       </c>
       <c r="I24" t="n">
-        <v>16291</v>
+        <v>1796</v>
       </c>
       <c r="J24" t="n">
-        <v>24181</v>
+        <v>4623</v>
       </c>
       <c r="K24" t="n">
-        <v>-3758</v>
+        <v>-4004</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-1412</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-722</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1404</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>accrued income taxes</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-40</v>
+      </c>
+      <c r="C25" t="n">
+        <v>346</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-93</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1049</v>
+      </c>
+      <c r="H25" t="n">
+        <v>304</v>
+      </c>
+      <c r="I25" t="n">
+        <v>258</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-136</v>
+      </c>
+      <c r="K25" t="n">
+        <v>428</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-161</v>
+      </c>
+      <c r="M25" t="n">
+        <v>24</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>payments for property and equipment</t>
+          <t>net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-10705</v>
+        <v>27753</v>
       </c>
       <c r="C26" t="n">
-        <v>-1752</v>
+        <v>3563</v>
       </c>
       <c r="D26" t="n">
-        <v>-3569</v>
+        <v>11185</v>
       </c>
       <c r="E26" t="n">
-        <v>-6438</v>
+        <v>14539</v>
       </c>
       <c r="F26" t="n">
-        <v>-10264</v>
+        <v>25255</v>
       </c>
       <c r="G26" t="n">
-        <v>-2214</v>
+        <v>7017</v>
       </c>
       <c r="H26" t="n">
-        <v>-5019</v>
+        <v>18956</v>
       </c>
       <c r="I26" t="n">
-        <v>-8588</v>
+        <v>22880</v>
       </c>
       <c r="J26" t="n">
-        <v>-13106</v>
+        <v>36074</v>
       </c>
       <c r="K26" t="n">
-        <v>-3539</v>
+        <v>2858</v>
+      </c>
+      <c r="L26" t="n">
+        <v>12423</v>
+      </c>
+      <c r="M26" t="n">
+        <v>16291</v>
+      </c>
+      <c r="N26" t="n">
+        <v>24181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>proceeds from the disposal of property and equipment</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>321</v>
-      </c>
-      <c r="C27" t="n">
-        <v>60</v>
-      </c>
-      <c r="D27" t="n">
-        <v>83</v>
-      </c>
-      <c r="E27" t="n">
-        <v>99</v>
-      </c>
-      <c r="F27" t="n">
-        <v>215</v>
-      </c>
-      <c r="G27" t="n">
-        <v>72</v>
-      </c>
-      <c r="H27" t="n">
-        <v>176</v>
-      </c>
-      <c r="I27" t="n">
-        <v>290</v>
-      </c>
-      <c r="J27" t="n">
-        <v>394</v>
-      </c>
-      <c r="K27" t="n">
-        <v>35</v>
-      </c>
+          <t>cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>proceeds from the disposal of certain operations</t>
+          <t>payments for property and equipment</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>833</v>
+        <v>-10344</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-2205</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-4871</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>-7765</v>
       </c>
       <c r="F28" t="n">
-        <v>56</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>-10705</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1752</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-3569</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-6438</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-10264</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-2214</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-5019</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-8588</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-13106</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>proceeds from disposal of certain operations, net of divested cash</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>proceeds from the disposal of property and equipment</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>519</v>
+      </c>
+      <c r="C29" t="n">
+        <v>42</v>
+      </c>
+      <c r="D29" t="n">
+        <v>128</v>
+      </c>
+      <c r="E29" t="n">
+        <v>218</v>
+      </c>
+      <c r="F29" t="n">
+        <v>321</v>
+      </c>
       <c r="G29" t="n">
-        <v>7935</v>
+        <v>60</v>
       </c>
       <c r="H29" t="n">
-        <v>7935</v>
+        <v>83</v>
       </c>
       <c r="I29" t="n">
-        <v>7935</v>
+        <v>99</v>
       </c>
       <c r="J29" t="n">
-        <v>7935</v>
+        <v>215</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="L29" t="n">
+        <v>176</v>
+      </c>
+      <c r="M29" t="n">
+        <v>290</v>
+      </c>
+      <c r="N29" t="n">
+        <v>394</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>payments for business acquisitions, net of cash acquired</t>
+          <t>proceeds from the disposal of certain operations</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-56</v>
+        <v>876</v>
       </c>
       <c r="C30" t="n">
-        <v>-10</v>
+        <v>833</v>
       </c>
       <c r="D30" t="n">
-        <v>-175</v>
+        <v>833</v>
       </c>
       <c r="E30" t="n">
-        <v>-180</v>
+        <v>833</v>
       </c>
       <c r="F30" t="n">
-        <v>-180</v>
+        <v>833</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-248</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-248</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>-359</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-598</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>other investing activities</t>
+          <t>purchase of available for sale securities</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>479</v>
-      </c>
-      <c r="C31" t="n">
-        <v>6</v>
-      </c>
-      <c r="D31" t="n">
-        <v>27</v>
-      </c>
-      <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
-        <v>102</v>
-      </c>
-      <c r="G31" t="n">
-        <v>57</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-442</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-919</v>
-      </c>
-      <c r="J31" t="n">
-        <v>-879</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-456</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>net cash used in investing activities</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-9128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-1696</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-3634</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-6507</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-10071</v>
-      </c>
+          <t>proceeds from disposal of certain operations, net of divested cash</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>-1530</v>
-      </c>
-      <c r="J32" t="n">
-        <v>-6015</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>7935</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7935</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7935</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7935</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>net cash provided by investing activities</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+          <t>payments for business acquisitions, net of cash acquired</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-14656</v>
+      </c>
+      <c r="C33" t="n">
+        <v>56</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-56</v>
+      </c>
       <c r="G33" t="n">
-        <v>5850</v>
+        <v>-10</v>
       </c>
       <c r="H33" t="n">
-        <v>2402</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>-175</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-180</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-180</v>
+      </c>
       <c r="K33" t="n">
-        <v>-4558</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-248</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+          <t>other investing activities</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-431</v>
+      </c>
+      <c r="C34" t="n">
+        <v>251</v>
+      </c>
+      <c r="D34" t="n">
+        <v>142</v>
+      </c>
+      <c r="E34" t="n">
+        <v>485</v>
+      </c>
+      <c r="F34" t="n">
+        <v>479</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>27</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>102</v>
+      </c>
+      <c r="K34" t="n">
+        <v>57</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-442</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-919</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-879</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>net change in short-term borrowings</t>
+          <t>net cash used in investing activities</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4656</v>
+        <v>-24036</v>
       </c>
       <c r="C35" t="n">
-        <v>3542</v>
+        <v>-1135</v>
       </c>
       <c r="D35" t="n">
-        <v>-178</v>
+        <v>-3824</v>
       </c>
       <c r="E35" t="n">
-        <v>-301</v>
+        <v>-6285</v>
       </c>
       <c r="F35" t="n">
-        <v>-324</v>
+        <v>-9128</v>
       </c>
       <c r="G35" t="n">
-        <v>138</v>
+        <v>-1696</v>
       </c>
       <c r="H35" t="n">
-        <v>441</v>
+        <v>-3634</v>
       </c>
       <c r="I35" t="n">
-        <v>228</v>
+        <v>-6507</v>
       </c>
       <c r="J35" t="n">
-        <v>193</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10995</v>
+        <v>-10071</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>-1530</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-6015</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>proceeds from issuance of long-term debt</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5492</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
+          <t>net cash provided by investing activities</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>6945</v>
-      </c>
-      <c r="J36" t="n">
-        <v>6945</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>5850</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2402</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>repayments of long-term debt</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-1907</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-2937</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-4132</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-5382</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-510</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-3010</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-13010</v>
-      </c>
-      <c r="J37" t="n">
-        <v>-13010</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-926</v>
-      </c>
+          <t>cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>premiums paid to extinguish debt</t>
+          <t>net change in short-term borrowings</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+        <v>-53</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-399</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1564</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-282</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-4656</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3542</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-178</v>
+      </c>
       <c r="I38" t="n">
-        <v>-2317</v>
+        <v>-301</v>
       </c>
       <c r="J38" t="n">
-        <v>-2317</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>-324</v>
+      </c>
+      <c r="K38" t="n">
+        <v>138</v>
+      </c>
+      <c r="L38" t="n">
+        <v>441</v>
+      </c>
+      <c r="M38" t="n">
+        <v>228</v>
+      </c>
+      <c r="N38" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dividends paid</t>
+          <t>proceeds from issuance of long-term debt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-6048</v>
+        <v>15872</v>
       </c>
       <c r="C39" t="n">
-        <v>-1529</v>
+        <v>3978</v>
       </c>
       <c r="D39" t="n">
-        <v>-3058</v>
+        <v>4020</v>
       </c>
       <c r="E39" t="n">
-        <v>-4582</v>
+        <v>5492</v>
       </c>
       <c r="F39" t="n">
-        <v>-6116</v>
+        <v>5492</v>
       </c>
       <c r="G39" t="n">
-        <v>-1549</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-3091</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-4627</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-6152</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-1543</v>
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>6945</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6945</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>purchase of company stock</t>
+          <t>repayments of long-term debt</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-5717</v>
+        <v>-3784</v>
       </c>
       <c r="C40" t="n">
-        <v>-723</v>
+        <v>-364</v>
       </c>
       <c r="D40" t="n">
-        <v>-723</v>
+        <v>-407</v>
       </c>
       <c r="E40" t="n">
-        <v>-1186</v>
+        <v>-1907</v>
       </c>
       <c r="F40" t="n">
-        <v>-2625</v>
+        <v>-1907</v>
       </c>
       <c r="G40" t="n">
-        <v>-2809</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-5200</v>
+        <v>-2937</v>
       </c>
       <c r="I40" t="n">
-        <v>-7368</v>
+        <v>-4132</v>
       </c>
       <c r="J40" t="n">
-        <v>-9787</v>
+        <v>-5382</v>
       </c>
       <c r="K40" t="n">
-        <v>-2408</v>
+        <v>-510</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-3010</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-13010</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-13010</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dividends paid to noncontrolling interest</t>
+          <t>premiums paid to extinguish debt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-555</v>
-      </c>
-      <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="n">
-        <v>-66</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-76</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>-434</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>-14</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-424</v>
-      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>-2317</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-2317</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>purchase of noncontrolling interest</t>
+          <t>dividends paid</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>-6102</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1520</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3036</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-4545</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-6048</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1529</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-3058</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-4582</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-6116</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1549</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-3091</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-4627</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-6152</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sale of subsidiary stock</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+          <t>purchase of company stock</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-7410</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2135</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3707</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-4829</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-5717</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-723</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-723</v>
+      </c>
       <c r="I43" t="n">
-        <v>3231</v>
+        <v>-1186</v>
       </c>
       <c r="J43" t="n">
-        <v>3239</v>
+        <v>-2625</v>
       </c>
       <c r="K43" t="n">
-        <v>35</v>
+        <v>-2809</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-5200</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-7368</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-9787</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>other financing activities</t>
+          <t>dividends paid to noncontrolling interest</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-908</v>
+        <v>-431</v>
       </c>
       <c r="C44" t="n">
-        <v>-725</v>
+        <v>-96</v>
       </c>
       <c r="D44" t="n">
-        <v>-852</v>
+        <v>-259</v>
       </c>
       <c r="E44" t="n">
-        <v>-1063</v>
+        <v>-407</v>
       </c>
       <c r="F44" t="n">
-        <v>-1236</v>
+        <v>-555</v>
       </c>
       <c r="G44" t="n">
-        <v>-669</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-685</v>
+        <v>-66</v>
       </c>
       <c r="I44" t="n">
-        <v>-1175</v>
+        <v>-76</v>
       </c>
       <c r="J44" t="n">
-        <v>-1515</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-838</v>
+        <v>-434</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-20</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-424</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>net cash used in financing activities</t>
+          <t>purchase of noncontrolling interest</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-14299</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>-7814</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-11340</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>-16117</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>-11559</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-18113</v>
-      </c>
-      <c r="J45" t="n">
-        <v>-22828</v>
-      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>effect of exchange rate on cash, cash equivalents, and restricted cash</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>-69</v>
-      </c>
+          <t>sale of subsidiary stock</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1784,229 +2044,290 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>3231</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3239</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>net cash provided by financing activities</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>other financing activities</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-629</v>
+      </c>
       <c r="C47" t="n">
-        <v>565</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+        <v>-310</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-578</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-735</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-908</v>
+      </c>
       <c r="G47" t="n">
-        <v>-5399</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>-725</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-852</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1063</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1236</v>
+      </c>
       <c r="K47" t="n">
-        <v>5315</v>
+        <v>-669</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-685</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1175</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>effect of exchange rates on cash, cash equivalents and restricted cash</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>net cash used in financing activities</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-2537</v>
+      </c>
       <c r="C48" t="n">
-        <v>-415</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-69</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-170</v>
-      </c>
+        <v>-846</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>235</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-51</v>
-      </c>
+        <v>-14299</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-21</v>
+        <v>-7814</v>
       </c>
       <c r="I48" t="n">
-        <v>-118</v>
+        <v>-11340</v>
       </c>
       <c r="J48" t="n">
-        <v>-140</v>
-      </c>
-      <c r="K48" t="n">
-        <v>49</v>
+        <v>-16117</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>-11559</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-18113</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-22828</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>net increase in cash, cash equivalents and restricted cash</t>
+          <t>effect of exchange rate on cash, cash equivalents, and restricted cash</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1759</v>
-      </c>
-      <c r="C49" t="n">
-        <v>5471</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7439</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4863</v>
-      </c>
+        <v>-438</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>10121</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3258</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3245</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-3470</v>
-      </c>
-      <c r="J49" t="n">
-        <v>-4802</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-2952</v>
-      </c>
+        <v>-69</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cash and cash equivalents reclassified as assets held for sale</t>
+          <t>net cash provided by financing activities</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>-1848</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>-5531</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7213</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>565</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>-5399</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>change in cash and cash equivalents classified as held for sale</t>
+          <t>effect of exchange rates on cash, cash equivalents and restricted cash</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-266</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-166</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>1848</v>
+        <v>-415</v>
       </c>
       <c r="H51" t="n">
-        <v>1848</v>
+        <v>-69</v>
       </c>
       <c r="I51" t="n">
-        <v>1848</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>-170</v>
+      </c>
+      <c r="J51" t="n">
+        <v>235</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-51</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-21</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-118</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-140</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>change in cash and cash equivalents reclassified from assets held for sale</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t>net increase in cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>742</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E52" t="n">
+        <v>875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1759</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5471</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7439</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4863</v>
+      </c>
       <c r="J52" t="n">
-        <v>1848</v>
+        <v>10121</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>3258</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3245</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-3470</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-4802</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cash, cash equivalents and restricted cash at beginning of year</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>7756</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9514</v>
-      </c>
-      <c r="D53" t="n">
-        <v>9515</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9515</v>
-      </c>
-      <c r="F53" t="n">
-        <v>9515</v>
-      </c>
-      <c r="G53" t="n">
-        <v>17788</v>
-      </c>
-      <c r="H53" t="n">
-        <v>17788</v>
-      </c>
-      <c r="I53" t="n">
-        <v>17788</v>
-      </c>
+          <t>cash and cash equivalents reclassified as assets held for sale</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>17788</v>
-      </c>
-      <c r="K53" t="n">
-        <v>14834</v>
-      </c>
+        <v>-1848</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cash, cash equivalents and restricted cash at end of year</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>9515</v>
-      </c>
+          <t>change in cash and cash equivalents classified as held for sale</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>17788</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>14834</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1848</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1848</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1848</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>supplemental disclosure of cash flow information:</t>
+          <t>change in cash and cash equivalents reclassified from assets held for sale</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2019,100 +2340,2970 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>1848</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>income taxes paid</t>
+          <t>cash, cash equivalents and restricted cash at beginning of year</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3616</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+        <v>7014</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7756</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7756</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7756</v>
+      </c>
       <c r="F56" t="n">
-        <v>5271</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+        <v>7756</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9514</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9515</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9515</v>
+      </c>
       <c r="J56" t="n">
-        <v>5918</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>9515</v>
+      </c>
+      <c r="K56" t="n">
+        <v>17788</v>
+      </c>
+      <c r="L56" t="n">
+        <v>17788</v>
+      </c>
+      <c r="M56" t="n">
+        <v>17788</v>
+      </c>
+      <c r="N56" t="n">
+        <v>17788</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>interest paid, excluding capitalized interest, operating activities</t>
+          <t>cash, cash equivalents and restricted cash at end of period</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2464</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+        <v>7756</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9292</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8631</v>
+      </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>14985</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16954</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14378</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>22894</v>
+      </c>
+      <c r="L57" t="n">
+        <v>22881</v>
+      </c>
+      <c r="M57" t="n">
+        <v>16166</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cash, cash equivalents and restricted cash at end of period</t>
+          <t>cash, cash equivalents and restricted cash at end of year</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
-        <v>14985</v>
-      </c>
-      <c r="D58" t="n">
-        <v>16954</v>
-      </c>
-      <c r="E58" t="n">
-        <v>14378</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>22894</v>
-      </c>
-      <c r="H58" t="n">
-        <v>22881</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16166</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11882</v>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>9515</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>17788</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>14834</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>interest paid</t>
+          <t>supplemental disclosure of cash flow information:</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
-        <v>2216</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>income taxes paid</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3982</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>3616</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5271</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>interest paid</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2348</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2216</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>2237</v>
       </c>
-      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>interest paid, excluding capitalized interest, operating activities</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>2464</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2019</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2021</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2021</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2021</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2021</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2021</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2022</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2022</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2022</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consolidated net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7179</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7586</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10907</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15201</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>consolidated net income</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>15201</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4074</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10513</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15714</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13706</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>consolidated net income</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>13706</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2811</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7175</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10307</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13940</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adjustments to reconcile income from continuing operations to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>adjustments to reconcile income from continuing operations to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>11152</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2661</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5302</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7952</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10658</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2714</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5436</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8159</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10987</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10987</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2791</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5562</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8333</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11152</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>net unrealized and realized and losses</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>-8589</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2077</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3019</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>unrealized loss on investments</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3516</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>unrealized and losses</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>-1886</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-783</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-4006</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-6883</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>losses on disposal of business operations</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>8401</v>
+      </c>
+      <c r="O7" t="n">
+        <v>433</v>
+      </c>
+      <c r="P7" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>433</v>
+      </c>
+      <c r="R7" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>unrealized and losses</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>-731</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-911</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1886</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(losss) and losses for disposal of business operations</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>asda pension contribution</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(losss) and losses for disposal of business operations</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4850</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>net unrealized and realized and losses</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>-8589</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>deferred income taxes</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1911</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-155</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-385</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-1402</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-755</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>unrealized and losses</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>-783</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>losses on disposal of business operations</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>8401</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>loss on extinguishment of debt</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>2410</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>asda pension contribution</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-1036</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>asda pension contribution</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-1036</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>other operating activities</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1521</v>
+      </c>
+      <c r="O11" t="n">
+        <v>270</v>
+      </c>
+      <c r="P11" t="n">
+        <v>606</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1057</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-499</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-124</v>
+      </c>
+      <c r="D12" t="n">
+        <v>241</v>
+      </c>
+      <c r="E12" t="n">
+        <v>574</v>
+      </c>
+      <c r="F12" t="n">
+        <v>320</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>loss on disposal of business operations</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>37</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions and dispositions:</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>loss on extinguishment of debt</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>losses and on disposal of business operations</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1028</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>receivables, net</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>-1086</v>
+      </c>
+      <c r="O13" t="n">
+        <v>828</v>
+      </c>
+      <c r="P13" t="n">
+        <v>452</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-842</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-1796</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>other operating activities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>348</v>
+      </c>
+      <c r="E14" t="n">
+        <v>938</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>deferred income taxes</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>320</v>
+      </c>
+      <c r="I14" t="n">
+        <v>84</v>
+      </c>
+      <c r="J14" t="n">
+        <v>472</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1246</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1911</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>-2395</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-1487</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-2725</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-12663</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-11764</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>loss on extinguishment of debt</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>6966</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-1004</v>
+      </c>
+      <c r="P15" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7906</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions and dispositions:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>other operating activities</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1981</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-51</v>
+      </c>
+      <c r="J16" t="n">
+        <v>305</v>
+      </c>
+      <c r="K16" t="n">
+        <v>930</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1521</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>accrued liabilities</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>4623</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-4004</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-1412</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-722</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>receivables, net</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-368</v>
+      </c>
+      <c r="C17" t="n">
+        <v>970</v>
+      </c>
+      <c r="D17" t="n">
+        <v>978</v>
+      </c>
+      <c r="E17" t="n">
+        <v>661</v>
+      </c>
+      <c r="F17" t="n">
+        <v>154</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions:</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>accrued income taxes</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>-136</v>
+      </c>
+      <c r="O17" t="n">
+        <v>428</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-161</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>24</v>
+      </c>
+      <c r="R17" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1311</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-421</v>
+      </c>
+      <c r="D18" t="n">
+        <v>220</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-7558</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-300</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>changes in certain assets and liabilities, net of effects of acquisitions and dispositions:</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>36074</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2858</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12423</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16291</v>
+      </c>
+      <c r="R18" t="n">
+        <v>24181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1854</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1242</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2925</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-274</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>receivables, net</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>154</v>
+      </c>
+      <c r="I19" t="n">
+        <v>924</v>
+      </c>
+      <c r="J19" t="n">
+        <v>823</v>
+      </c>
+      <c r="K19" t="n">
+        <v>165</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-1086</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>accrued liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>183</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1514</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1107</v>
+      </c>
+      <c r="F20" t="n">
+        <v>186</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>inventories</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-300</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2221</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2466</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-8260</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-2395</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>payments for property and equipment</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>-10264</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-2214</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-5019</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-8588</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-13106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>accrued income taxes</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-40</v>
+      </c>
+      <c r="C21" t="n">
+        <v>346</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-93</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>accounts payable</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>-274</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1183</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1052</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8553</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6966</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>proceeds from the disposal of property and equipment</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>215</v>
+      </c>
+      <c r="O21" t="n">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>290</v>
+      </c>
+      <c r="R21" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>27753</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3563</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11185</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14539</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25255</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>accrued liabilities</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>186</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2109</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1428</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1796</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4623</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>proceeds from the disposal of certain operations</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>56</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>accrued income taxes</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-93</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1049</v>
+      </c>
+      <c r="J23" t="n">
+        <v>304</v>
+      </c>
+      <c r="K23" t="n">
+        <v>258</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-136</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>proceeds from disposal of certain operations, net of divested cash</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>7935</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7935</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7935</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>payments for property and equipment</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-10344</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2205</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4871</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-7765</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-10705</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>25255</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7017</v>
+      </c>
+      <c r="J24" t="n">
+        <v>18956</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22880</v>
+      </c>
+      <c r="L24" t="n">
+        <v>36074</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>payments for business acquisitions, net of cash acquired</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>-180</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-248</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-248</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-359</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>proceeds from the disposal of property and equipment</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>519</v>
+      </c>
+      <c r="C25" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>218</v>
+      </c>
+      <c r="F25" t="n">
+        <v>321</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>other investing activities</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>102</v>
+      </c>
+      <c r="O25" t="n">
+        <v>57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-442</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-919</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-879</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>proceeds from the disposal of certain operations</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>876</v>
+      </c>
+      <c r="C26" t="n">
+        <v>833</v>
+      </c>
+      <c r="D26" t="n">
+        <v>833</v>
+      </c>
+      <c r="E26" t="n">
+        <v>833</v>
+      </c>
+      <c r="F26" t="n">
+        <v>833</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>payments for property and equipment</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>-10705</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1752</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-3569</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-6438</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-10264</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>net cash used in investing activities</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>-10071</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>-1530</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-6015</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>purchase of available for sale securities</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>proceeds from the disposal of property and equipment</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>321</v>
+      </c>
+      <c r="I27" t="n">
+        <v>60</v>
+      </c>
+      <c r="J27" t="n">
+        <v>83</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99</v>
+      </c>
+      <c r="L27" t="n">
+        <v>215</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>net cash provided by investing activities</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>5850</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2402</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>payments for business acquisitions, net of cash acquired</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-14656</v>
+      </c>
+      <c r="C28" t="n">
+        <v>56</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-56</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>proceeds from the disposal of certain operations</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>833</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12</v>
+      </c>
+      <c r="L28" t="n">
+        <v>56</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>other investing activities</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-431</v>
+      </c>
+      <c r="C29" t="n">
+        <v>251</v>
+      </c>
+      <c r="D29" t="n">
+        <v>142</v>
+      </c>
+      <c r="E29" t="n">
+        <v>485</v>
+      </c>
+      <c r="F29" t="n">
+        <v>479</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>payments for business acquisitions, net of cash acquired</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>-56</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-175</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-180</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-180</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>net change in short-term borrowings</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>-324</v>
+      </c>
+      <c r="O29" t="n">
+        <v>138</v>
+      </c>
+      <c r="P29" t="n">
+        <v>441</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>228</v>
+      </c>
+      <c r="R29" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>net cash used in investing activities</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-24036</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1135</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3824</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-6285</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-9128</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>other investing activities</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>479</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>102</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>proceeds from issuance of long-term debt</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>6945</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>net cash used in investing activities</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>-9128</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1696</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-3634</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-6507</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-10071</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>repayments of long-term debt</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>-5382</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-510</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-3010</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-13010</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-13010</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>net change in short-term borrowings</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-53</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-399</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1564</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-282</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4656</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>premiums paid to extinguish debt</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>-2317</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-2317</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>proceeds from issuance of long-term debt</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15872</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3978</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5492</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5492</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>net change in short-term borrowings</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>-4656</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3542</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-178</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-301</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-324</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>dividends paid</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>-6116</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-1549</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-3091</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-4627</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-6152</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>repayments of long-term debt</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-3784</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-364</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-407</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1907</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1907</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>proceeds from issuance of long-term debt</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5492</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>purchase of company stock</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>-2625</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-2809</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-5200</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-7368</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-9787</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>premiums paid to extinguish debt</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>repayments of long-term debt</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>-1907</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-2937</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-4132</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-5382</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>dividends paid to noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>-434</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-20</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-424</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>dividends paid</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-6102</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1520</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3036</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-4545</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-6048</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>premiums paid to extinguish debt</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>sale of subsidiary stock</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>3231</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>purchase of company stock</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-7410</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2135</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-3707</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-4829</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-5717</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>dividends paid</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>-6048</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1529</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-3058</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-4582</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-6116</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>other financing activities</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>-1236</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-669</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-685</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1175</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1515</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>dividends paid to noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-431</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-96</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-259</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-407</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-555</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>purchase of company stock</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>-5717</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-723</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-723</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-1186</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-2625</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>net cash used in financing activities</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>-16117</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>-11559</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-18113</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-22828</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>purchase of noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>dividends paid to noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-555</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-66</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-76</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-434</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>net cash provided by financing activities</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>-5399</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>other financing activities</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-629</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-310</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-578</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-735</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-908</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>purchase of noncontrolling interest</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>effect of exchange rates on cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>235</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-51</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-21</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-118</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>net cash used in financing activities</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2537</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-846</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-14299</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>other financing activities</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>-908</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-725</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-852</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-1063</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-1236</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>net increase in cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>10121</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3258</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3245</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-3470</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-4802</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>effect of exchange rate on cash, cash equivalents, and restricted cash</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-438</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-69</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>net cash used in financing activities</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>-14299</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>-7814</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-11340</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-16117</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>cash and cash equivalents reclassified as assets held for sale</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>-1848</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>net cash provided by financing activities</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>-5531</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-7213</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>effect of exchange rate on cash, cash equivalents, and restricted cash</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>-69</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>change in cash and cash equivalents classified as held for sale</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>1848</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1848</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1848</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>effect of exchange rates on cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-266</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-166</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>net cash provided by financing activities</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>565</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>change in cash and cash equivalents reclassified from assets held for sale</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>net increase in cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>742</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E45" t="n">
+        <v>875</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1759</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>effect of exchange rates on cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>-415</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-69</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-170</v>
+      </c>
+      <c r="L45" t="n">
+        <v>235</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at beginning of year</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>9515</v>
+      </c>
+      <c r="O45" t="n">
+        <v>17788</v>
+      </c>
+      <c r="P45" t="n">
+        <v>17788</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>17788</v>
+      </c>
+      <c r="R45" t="n">
+        <v>17788</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at beginning of year</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7014</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7756</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7756</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7756</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7756</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>net increase in cash, cash equivalents and restricted cash</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1759</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5471</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7439</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4863</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10121</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at end of year</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>17788</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>14834</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at end of period</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7756</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9292</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8631</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>cash and cash equivalents reclassified as assets held for sale</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>-1848</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at end of year</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>9515</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at beginning of year</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7756</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9514</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9515</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9515</v>
+      </c>
+      <c r="L48" t="n">
+        <v>9515</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>income taxes paid</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>5271</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at end of year</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9515</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>17788</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>interest paid</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>2216</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>income taxes paid</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3982</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>3616</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at end of period</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>22894</v>
+      </c>
+      <c r="P50" t="n">
+        <v>22881</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>16166</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>interest paid</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2348</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>income taxes paid</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3616</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>5271</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>interest paid, excluding capitalized interest, operating activities</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>2464</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>interest paid, excluding capitalized interest, operating activities</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2464</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>cash, cash equivalents and restricted cash at end of period</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>14985</v>
+      </c>
+      <c r="J53" t="n">
+        <v>16954</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14378</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>interest paid</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>2216</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
